--- a/RUDN/Correlations/deep.Corr_in_AND.Southern Europe.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_AND.Southern Europe.xlsx
@@ -13,10 +13,194 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>IT.CEL.SETS.P2:AND</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:AND</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:AND</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:AND</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:AND</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:AND</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:AND</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:AND</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:AND</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:AND</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:AND</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:AND</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:AND</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:AND</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:AND</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:AND</t>
+  </si>
+  <si>
+    <t>SP.URB.GROW:AND</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:AND</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:AND</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:AND:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:AND:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:AND:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:AND:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.CHLD.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.NPRG.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HEPB:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.HIB3:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.POL3:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.GROW:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZG:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.GROW:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.GROW:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL.IN.ZS:AND:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:AND:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:AND:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +224,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +542,1192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0.4152169259079325</v>
+      </c>
+      <c r="D2">
+        <v>0.7321877701646176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0.1398421067484892</v>
+      </c>
+      <c r="D3">
+        <v>0.002905994016935842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.80452976221251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.0005209069974395567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.6105835105529898</v>
+      </c>
+      <c r="C6">
+        <v>0.7271933167742238</v>
+      </c>
+      <c r="D6">
+        <v>0.8106119477037685</v>
+      </c>
+      <c r="G6">
+        <v>0.297592123062756</v>
+      </c>
+      <c r="H6">
+        <v>0.4169069930280937</v>
+      </c>
+      <c r="I6">
+        <v>0.7842086715991532</v>
+      </c>
+      <c r="J6">
+        <v>0.6091718508606198</v>
+      </c>
+      <c r="M6">
+        <v>-0.9035718272782476</v>
+      </c>
+      <c r="O6">
+        <v>-0.86971659023319</v>
+      </c>
+      <c r="P6">
+        <v>0.7574251343443584</v>
+      </c>
+      <c r="Q6">
+        <v>0.8246115903568145</v>
+      </c>
+      <c r="R6">
+        <v>-0.9044667915979107</v>
+      </c>
+      <c r="S6">
+        <v>-0.7574251343443585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0.0203816324285732</v>
+      </c>
+      <c r="C7">
+        <v>0.003208133706427955</v>
+      </c>
+      <c r="D7">
+        <v>0.0004370280090075041</v>
+      </c>
+      <c r="G7">
+        <v>0.301451148090616</v>
+      </c>
+      <c r="H7">
+        <v>0.1380734532154128</v>
+      </c>
+      <c r="I7">
+        <v>0.0008993503991813026</v>
+      </c>
+      <c r="J7">
+        <v>0.02075504919502311</v>
+      </c>
+      <c r="M7">
+        <v>9.402406189906396e-06</v>
+      </c>
+      <c r="O7">
+        <v>5.301323303163927e-05</v>
+      </c>
+      <c r="P7">
+        <v>0.001703904764254345</v>
+      </c>
+      <c r="Q7">
+        <v>0.0002847223957210786</v>
+      </c>
+      <c r="R7">
+        <v>8.908547540798725e-06</v>
+      </c>
+      <c r="S7">
+        <v>0.001703904764254342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0.6192684927621522</v>
+      </c>
+      <c r="C8">
+        <v>0.3999615496536879</v>
+      </c>
+      <c r="D8">
+        <v>0.6861622748993488</v>
+      </c>
+      <c r="E8">
+        <v>0.4135123514824847</v>
+      </c>
+      <c r="G8">
+        <v>0.986703120988125</v>
+      </c>
+      <c r="H8">
+        <v>0.9988497747780226</v>
+      </c>
+      <c r="I8">
+        <v>0.4348412645975106</v>
+      </c>
+      <c r="J8">
+        <v>0.3744233390804115</v>
+      </c>
+      <c r="M8">
+        <v>-0.6879207783800322</v>
+      </c>
+      <c r="O8">
+        <v>-0.7554010268189644</v>
+      </c>
+      <c r="P8">
+        <v>0.8807358198777337</v>
+      </c>
+      <c r="Q8">
+        <v>0.7691209080253872</v>
+      </c>
+      <c r="R8">
+        <v>-0.6850177219077351</v>
+      </c>
+      <c r="S8">
+        <v>-0.8807358198777337</v>
+      </c>
+      <c r="T8">
+        <v>-0.6934451208438352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.01819472136873933</v>
+      </c>
+      <c r="C9">
+        <v>0.156493116034299</v>
+      </c>
+      <c r="D9">
+        <v>0.006734389724470699</v>
+      </c>
+      <c r="E9">
+        <v>0.1416411974724116</v>
+      </c>
+      <c r="G9">
+        <v>7.75502841479534e-11</v>
+      </c>
+      <c r="H9">
+        <v>3.335175095251639e-17</v>
+      </c>
+      <c r="I9">
+        <v>0.1202220053319475</v>
+      </c>
+      <c r="J9">
+        <v>0.1871865070311717</v>
+      </c>
+      <c r="M9">
+        <v>0.006539088278151708</v>
+      </c>
+      <c r="O9">
+        <v>0.001782454871760195</v>
+      </c>
+      <c r="P9">
+        <v>3.198079422628539e-05</v>
+      </c>
+      <c r="Q9">
+        <v>0.0013021498197457</v>
+      </c>
+      <c r="R9">
+        <v>0.006863920627408957</v>
+      </c>
+      <c r="S9">
+        <v>3.198079422628539e-05</v>
+      </c>
+      <c r="T9">
+        <v>0.005954068531273086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.5298928270207741</v>
+      </c>
+      <c r="C10">
+        <v>0.2861581268184168</v>
+      </c>
+      <c r="D10">
+        <v>0.5668905967664738</v>
+      </c>
+      <c r="H10">
+        <v>0.9881873292136009</v>
+      </c>
+      <c r="O10">
+        <v>-0.6516655334419641</v>
+      </c>
+      <c r="P10">
+        <v>0.7988399420155895</v>
+      </c>
+      <c r="Q10">
+        <v>0.6606326064139899</v>
+      </c>
+      <c r="R10">
+        <v>-0.5722658680664351</v>
+      </c>
+      <c r="S10">
+        <v>-0.7988399420155895</v>
+      </c>
+      <c r="T10">
+        <v>-0.7848487873164033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0.05130059667380948</v>
+      </c>
+      <c r="C11">
+        <v>0.3212817845329151</v>
+      </c>
+      <c r="D11">
+        <v>0.03452238695296858</v>
+      </c>
+      <c r="H11">
+        <v>3.824386583753687e-11</v>
+      </c>
+      <c r="O11">
+        <v>0.01156803304278913</v>
+      </c>
+      <c r="P11">
+        <v>0.0006106467520262287</v>
+      </c>
+      <c r="Q11">
+        <v>0.01011384329708669</v>
+      </c>
+      <c r="R11">
+        <v>0.03247452056345515</v>
+      </c>
+      <c r="S11">
+        <v>0.0006106467520262287</v>
+      </c>
+      <c r="T11">
+        <v>0.0008847851264902843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0.6072631923146005</v>
+      </c>
+      <c r="C12">
+        <v>0.3970857910087745</v>
+      </c>
+      <c r="D12">
+        <v>0.6785509926389499</v>
+      </c>
+      <c r="O12">
+        <v>-0.7549130527841477</v>
+      </c>
+      <c r="P12">
+        <v>0.8779398263926551</v>
+      </c>
+      <c r="Q12">
+        <v>0.7630354178125686</v>
+      </c>
+      <c r="R12">
+        <v>-0.684228099747719</v>
+      </c>
+      <c r="S12">
+        <v>-0.8779398263926551</v>
+      </c>
+      <c r="T12">
+        <v>-0.7086241246140412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0.021268116537513</v>
+      </c>
+      <c r="C13">
+        <v>0.159771715943401</v>
+      </c>
+      <c r="D13">
+        <v>0.007632557507843689</v>
+      </c>
+      <c r="O13">
+        <v>0.00180181503240631</v>
+      </c>
+      <c r="P13">
+        <v>3.65209775146335e-05</v>
+      </c>
+      <c r="Q13">
+        <v>0.001500467012015558</v>
+      </c>
+      <c r="R13">
+        <v>0.006954405941837797</v>
+      </c>
+      <c r="S13">
+        <v>3.65209775146335e-05</v>
+      </c>
+      <c r="T13">
+        <v>0.004554615814920889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>0.6367255977808562</v>
+      </c>
+      <c r="C14">
+        <v>0.8874624307459729</v>
+      </c>
+      <c r="D14">
+        <v>0.8958106410854408</v>
+      </c>
+      <c r="G14">
+        <v>0.2924881960184586</v>
+      </c>
+      <c r="H14">
+        <v>0.4259481873642471</v>
+      </c>
+      <c r="J14">
+        <v>0.688087102403609</v>
+      </c>
+      <c r="L14">
+        <v>0.1385643283808063</v>
+      </c>
+      <c r="M14">
+        <v>-0.8695281849293525</v>
+      </c>
+      <c r="O14">
+        <v>-0.8446192019298634</v>
+      </c>
+      <c r="P14">
+        <v>0.7664625648091841</v>
+      </c>
+      <c r="Q14">
+        <v>0.8674880837482092</v>
+      </c>
+      <c r="R14">
+        <v>-0.8710470107459087</v>
+      </c>
+      <c r="S14">
+        <v>-0.7664625648091841</v>
+      </c>
+      <c r="T14">
+        <v>0.2130663110093078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0.01434128133909639</v>
+      </c>
+      <c r="C15">
+        <v>2.291768994066962e-05</v>
+      </c>
+      <c r="D15">
+        <v>1.47040918047824e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.3102137800138325</v>
+      </c>
+      <c r="H15">
+        <v>0.1288658952053795</v>
+      </c>
+      <c r="J15">
+        <v>0.006520846753412747</v>
+      </c>
+      <c r="L15">
+        <v>0.6366324237773053</v>
+      </c>
+      <c r="M15">
+        <v>5.345213915383676e-05</v>
+      </c>
+      <c r="O15">
+        <v>0.0001441121742098647</v>
+      </c>
+      <c r="P15">
+        <v>0.001386034150801976</v>
+      </c>
+      <c r="Q15">
+        <v>5.839737029025415e-05</v>
+      </c>
+      <c r="R15">
+        <v>4.999678971447015e-05</v>
+      </c>
+      <c r="S15">
+        <v>0.001386034150801976</v>
+      </c>
+      <c r="T15">
+        <v>0.4645613692101702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0.6590818542355846</v>
+      </c>
+      <c r="C16">
+        <v>0.5255599104599125</v>
+      </c>
+      <c r="D16">
+        <v>0.7094589503305553</v>
+      </c>
+      <c r="G16">
+        <v>0.25689800970816</v>
+      </c>
+      <c r="H16">
+        <v>0.3444659777242592</v>
+      </c>
+      <c r="L16">
+        <v>0.4019725374997089</v>
+      </c>
+      <c r="M16">
+        <v>-0.662869537153212</v>
+      </c>
+      <c r="O16">
+        <v>-0.6453931711431611</v>
+      </c>
+      <c r="P16">
+        <v>0.6234014245566551</v>
+      </c>
+      <c r="Q16">
+        <v>0.7123380011027225</v>
+      </c>
+      <c r="R16">
+        <v>-0.6656167962886099</v>
+      </c>
+      <c r="S16">
+        <v>-0.6234014245566555</v>
+      </c>
+      <c r="T16">
+        <v>0.230413244401806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0.01035466717488846</v>
+      </c>
+      <c r="C17">
+        <v>0.0535939965766199</v>
+      </c>
+      <c r="D17">
+        <v>0.004485907556154168</v>
+      </c>
+      <c r="G17">
+        <v>0.3752828647869998</v>
+      </c>
+      <c r="H17">
+        <v>0.2277955361361644</v>
+      </c>
+      <c r="L17">
+        <v>0.154226925841294</v>
+      </c>
+      <c r="M17">
+        <v>0.009774088013087804</v>
+      </c>
+      <c r="O17">
+        <v>0.01267698363184025</v>
+      </c>
+      <c r="P17">
+        <v>0.01721880726102328</v>
+      </c>
+      <c r="Q17">
+        <v>0.004255159818597551</v>
+      </c>
+      <c r="R17">
+        <v>0.009368939636083082</v>
+      </c>
+      <c r="S17">
+        <v>0.01721880726102321</v>
+      </c>
+      <c r="T17">
+        <v>0.4280691611194663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>-0.2713556730691642</v>
+      </c>
+      <c r="C18">
+        <v>0.3190448473128439</v>
+      </c>
+      <c r="I18">
+        <v>0.1385643283808063</v>
+      </c>
+      <c r="J18">
+        <v>0.4019725374997089</v>
+      </c>
+      <c r="K18">
+        <v>0.8859730888534617</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>0.3480217766842953</v>
+      </c>
+      <c r="C19">
+        <v>0.2662092524406231</v>
+      </c>
+      <c r="I19">
+        <v>0.6366324237773053</v>
+      </c>
+      <c r="J19">
+        <v>0.154226925841294</v>
+      </c>
+      <c r="K19">
+        <v>2.471608414740971e-05</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0.6002655798614966</v>
+      </c>
+      <c r="D20">
+        <v>0.2480600013852682</v>
+      </c>
+      <c r="E20">
+        <v>0.1623783561983211</v>
+      </c>
+      <c r="I20">
+        <v>0.4551859444006965</v>
+      </c>
+      <c r="J20">
+        <v>0.5862560465087423</v>
+      </c>
+      <c r="L20">
+        <v>0.8859730888534617</v>
+      </c>
+      <c r="M20">
+        <v>-0.2926577190378604</v>
+      </c>
+      <c r="N20">
+        <v>0.2435109271378396</v>
+      </c>
+      <c r="O20">
+        <v>-0.2513651832742622</v>
+      </c>
+      <c r="P20">
+        <v>0.2430267503416042</v>
+      </c>
+      <c r="Q20">
+        <v>0.2956511325166566</v>
+      </c>
+      <c r="R20">
+        <v>-0.2972440525930409</v>
+      </c>
+      <c r="S20">
+        <v>-0.2430267503416043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0.02323131208926149</v>
+      </c>
+      <c r="D21">
+        <v>0.3924940210791236</v>
+      </c>
+      <c r="E21">
+        <v>0.5791533467972545</v>
+      </c>
+      <c r="I21">
+        <v>0.1019491434359438</v>
+      </c>
+      <c r="J21">
+        <v>0.02756756548634856</v>
+      </c>
+      <c r="L21">
+        <v>2.471608414740971e-05</v>
+      </c>
+      <c r="M21">
+        <v>0.3099204168627447</v>
+      </c>
+      <c r="N21">
+        <v>0.4015119154934144</v>
+      </c>
+      <c r="O21">
+        <v>0.3860095185437846</v>
+      </c>
+      <c r="P21">
+        <v>0.402478034336773</v>
+      </c>
+      <c r="Q21">
+        <v>0.3047664865934956</v>
+      </c>
+      <c r="R21">
+        <v>0.3020441348669759</v>
+      </c>
+      <c r="S21">
+        <v>0.402478034336773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>-0.2713556730691642</v>
+      </c>
+      <c r="C22">
+        <v>0.3190448473128439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>0.3480217766842953</v>
+      </c>
+      <c r="C23">
+        <v>0.2662092524406231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>-0.7169869896588597</v>
+      </c>
+      <c r="C24">
+        <v>-0.8148296714024907</v>
+      </c>
+      <c r="D24">
+        <v>-0.9509132687186395</v>
+      </c>
+      <c r="G24">
+        <v>-0.5756409627670556</v>
+      </c>
+      <c r="H24">
+        <v>-0.6872807440616578</v>
+      </c>
+      <c r="O24">
+        <v>0.9944085136284159</v>
+      </c>
+      <c r="P24">
+        <v>-0.9465214793042961</v>
+      </c>
+      <c r="Q24">
+        <v>-0.9761881351247699</v>
+      </c>
+      <c r="R24">
+        <v>0.9999799108454546</v>
+      </c>
+      <c r="S24">
+        <v>0.9465214793042961</v>
+      </c>
+      <c r="T24">
+        <v>0.1435051984855941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0.003902303381462389</v>
+      </c>
+      <c r="C25">
+        <v>0.0003855274785513893</v>
+      </c>
+      <c r="D25">
+        <v>1.816141296964719e-07</v>
+      </c>
+      <c r="G25">
+        <v>0.03123562969715354</v>
+      </c>
+      <c r="H25">
+        <v>0.006609654326285308</v>
+      </c>
+      <c r="O25">
+        <v>4.359596429546746e-13</v>
+      </c>
+      <c r="P25">
+        <v>3.007948082672333e-07</v>
+      </c>
+      <c r="Q25">
+        <v>2.500277321773679e-09</v>
+      </c>
+      <c r="R25">
+        <v>9.489498475084182e-28</v>
+      </c>
+      <c r="S25">
+        <v>3.007948082672333e-07</v>
+      </c>
+      <c r="T25">
+        <v>0.624535770035834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0.4493787216331393</v>
+      </c>
+      <c r="C26">
+        <v>0.4209696095334035</v>
+      </c>
+      <c r="D26">
+        <v>0.4882889295368973</v>
+      </c>
+      <c r="E26">
+        <v>0.4781333096800142</v>
+      </c>
+      <c r="F26">
+        <v>-0.2548611622021698</v>
+      </c>
+      <c r="G26">
+        <v>-0.396996783949364</v>
+      </c>
+      <c r="H26">
+        <v>-0.2722945062391716</v>
+      </c>
+      <c r="I26">
+        <v>0.6491913457665761</v>
+      </c>
+      <c r="J26">
+        <v>0.5852748128701399</v>
+      </c>
+      <c r="M26">
+        <v>-0.3698176062677446</v>
+      </c>
+      <c r="O26">
+        <v>-0.311463071750867</v>
+      </c>
+      <c r="P26">
+        <v>0.1636889143274789</v>
+      </c>
+      <c r="Q26">
+        <v>0.369007638086763</v>
+      </c>
+      <c r="R26">
+        <v>-0.3731104605614195</v>
+      </c>
+      <c r="S26">
+        <v>-0.163688914327479</v>
+      </c>
+      <c r="T26">
+        <v>0.8597327991739693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>0.1069553513890346</v>
+      </c>
+      <c r="C27">
+        <v>0.1338832947266354</v>
+      </c>
+      <c r="D27">
+        <v>0.07647556534049631</v>
+      </c>
+      <c r="E27">
+        <v>0.08375026981936874</v>
+      </c>
+      <c r="F27">
+        <v>0.3792130003670997</v>
+      </c>
+      <c r="G27">
+        <v>0.1598739043915962</v>
+      </c>
+      <c r="H27">
+        <v>0.3462903778202103</v>
+      </c>
+      <c r="I27">
+        <v>0.01199618625863343</v>
+      </c>
+      <c r="J27">
+        <v>0.02789242304209043</v>
+      </c>
+      <c r="M27">
+        <v>0.1931039777494727</v>
+      </c>
+      <c r="O27">
+        <v>0.2783699525231462</v>
+      </c>
+      <c r="P27">
+        <v>0.576052711340345</v>
+      </c>
+      <c r="Q27">
+        <v>0.1941568102032999</v>
+      </c>
+      <c r="R27">
+        <v>0.1888613082005748</v>
+      </c>
+      <c r="S27">
+        <v>0.576052711340345</v>
+      </c>
+      <c r="T27">
+        <v>8.071939848900439e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>-0.745414797734351</v>
+      </c>
+      <c r="C28">
+        <v>-0.7764082981581164</v>
+      </c>
+      <c r="D28">
+        <v>-0.9579622664505471</v>
+      </c>
+      <c r="R28">
+        <v>0.9938596349189732</v>
+      </c>
+      <c r="S28">
+        <v>0.9734231925225416</v>
+      </c>
+      <c r="T28">
+        <v>0.2113843975486722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0.002213110012159287</v>
+      </c>
+      <c r="C29">
+        <v>0.001092758082185148</v>
+      </c>
+      <c r="D29">
+        <v>7.275787275975775e-08</v>
+      </c>
+      <c r="R29">
+        <v>7.637229486442951e-13</v>
+      </c>
+      <c r="S29">
+        <v>4.804473012477078e-09</v>
+      </c>
+      <c r="T29">
+        <v>0.4681773273432278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>0.7665083250202845</v>
+      </c>
+      <c r="C30">
+        <v>0.6971815783824823</v>
+      </c>
+      <c r="D30">
+        <v>0.930101741852875</v>
+      </c>
+      <c r="O30">
+        <v>-0.9734231925225414</v>
+      </c>
+      <c r="R30">
+        <v>-0.945330146500971</v>
+      </c>
+      <c r="S30">
+        <v>-0.9999999999999999</v>
+      </c>
+      <c r="T30">
+        <v>-0.3628989561227681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0.001384554697052671</v>
+      </c>
+      <c r="C31">
+        <v>0.005582103519195731</v>
+      </c>
+      <c r="D31">
+        <v>1.446549080292421e-06</v>
+      </c>
+      <c r="O31">
+        <v>4.804473012477315e-09</v>
+      </c>
+      <c r="R31">
+        <v>3.424118622819233e-07</v>
+      </c>
+      <c r="S31">
+        <v>2.703668094834745e-95</v>
+      </c>
+      <c r="T31">
+        <v>0.2022148262677972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>0.8078979225869175</v>
+      </c>
+      <c r="C32">
+        <v>0.763272386710078</v>
+      </c>
+      <c r="D32">
+        <v>0.9794008405201218</v>
+      </c>
+      <c r="O32">
+        <v>-0.9868824356290377</v>
+      </c>
+      <c r="P32">
+        <v>0.9768787661671192</v>
+      </c>
+      <c r="R32">
+        <v>-0.9758705983048428</v>
+      </c>
+      <c r="S32">
+        <v>-0.9768787661671192</v>
+      </c>
+      <c r="T32">
+        <v>-0.1574510416383187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>0.000472996919410347</v>
+      </c>
+      <c r="C33">
+        <v>0.001492320585461324</v>
+      </c>
+      <c r="D33">
+        <v>1.055214739093592e-09</v>
+      </c>
+      <c r="O33">
+        <v>7.151086980332605e-11</v>
+      </c>
+      <c r="P33">
+        <v>2.098661793310798e-09</v>
+      </c>
+      <c r="R33">
+        <v>2.705258252599593e-09</v>
+      </c>
+      <c r="S33">
+        <v>2.098661793310798e-09</v>
+      </c>
+      <c r="T33">
+        <v>0.5908711765991175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>-0.7162621291335084</v>
+      </c>
+      <c r="C34">
+        <v>-0.8170801363447963</v>
+      </c>
+      <c r="D34">
+        <v>-0.9505923763733547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>0.003955752041761709</v>
+      </c>
+      <c r="C35">
+        <v>0.0003601204997678391</v>
+      </c>
+      <c r="D35">
+        <v>1.887227443833188e-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>-0.766508325020285</v>
+      </c>
+      <c r="C36">
+        <v>-0.6971815783824823</v>
+      </c>
+      <c r="D36">
+        <v>-0.9301017418528752</v>
+      </c>
+      <c r="R36">
+        <v>0.9453301465009712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>0.001384554697052656</v>
+      </c>
+      <c r="C37">
+        <v>0.005582103519195731</v>
+      </c>
+      <c r="D37">
+        <v>1.446549080292394e-06</v>
+      </c>
+      <c r="R37">
+        <v>3.424118622819147e-07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38">
+        <v>0.1398320060373893</v>
+      </c>
+      <c r="S38">
+        <v>0.3628989561227681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39">
+        <v>0.6335206059941934</v>
+      </c>
+      <c r="S39">
+        <v>0.2022148262677972</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>